--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" state="visible" r:id="rId2"/>
@@ -163,10 +163,10 @@
     <t xml:space="preserve">GNU General Public License v3.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Apache License 2.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0</t>
   </si>
   <si>
     <t xml:space="preserve">none</t>
@@ -450,10 +450,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.38"/>
@@ -562,10 +562,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="1" sqref="D3 K50"/>
+      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -585,10 +585,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
@@ -695,11 +695,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.64"/>
@@ -777,7 +777,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>21</v>
@@ -794,7 +794,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>42</v>
@@ -811,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>46</v>
@@ -845,10 +845,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D3 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -1014,11 +1014,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -1128,10 +1128,10 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="D3 K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
@@ -1431,10 +1431,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D3 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
@@ -1568,10 +1568,10 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="D3 O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
@@ -1772,10 +1772,10 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" state="visible" r:id="rId2"/>
@@ -124,19 +124,19 @@
     <t xml:space="preserve">Go</t>
   </si>
   <si>
-    <t xml:space="preserve">Vue.Js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node.Js</t>
+    <t xml:space="preserve">Vue.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node.js</t>
   </si>
   <si>
     <t xml:space="preserve">PostgresSQL</t>
   </si>
   <si>
-    <t xml:space="preserve">Typescript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReactJs</t>
+    <t xml:space="preserve">TypeScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React.js</t>
   </si>
   <si>
     <t xml:space="preserve">Access via IPFS</t>
@@ -422,11 +422,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,7 +453,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.38"/>
@@ -565,7 +565,7 @@
       <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -588,7 +588,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
@@ -695,11 +695,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.64"/>
@@ -845,10 +845,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -1015,10 +1015,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -1128,16 +1128,16 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="2" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1211,28 +1211,28 @@
       <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="J2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1261,28 +1261,28 @@
       <c r="H3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1311,28 +1311,28 @@
       <c r="H4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="J4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1361,28 +1361,28 @@
       <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1431,10 +1431,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
@@ -1571,13 +1571,13 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1624,19 +1624,19 @@
       <c r="E2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1656,19 +1656,19 @@
       <c r="E3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="P3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       <c r="E4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="P4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1720,19 +1720,19 @@
       <c r="E5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="8" t="s">
+      <c r="P5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1771,11 +1771,11 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
@@ -1794,16 +1794,16 @@
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1812,7 +1812,7 @@
       <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="7"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,17 +1825,17 @@
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="7"/>
       <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1844,7 +1844,7 @@
       <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="7"/>
       <c r="R4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,13 +1854,13 @@
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
